--- a/Yoyung开关控制系统 应用协议.xlsx
+++ b/Yoyung开关控制系统 应用协议.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\无人机解决方案 物联网系统\Yoyung 开关控制系统\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2F5FBCE-607E-41A7-9F1B-89096651E90F}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B70CAF3-B5BA-4FC1-8DCA-757CC0C358B6}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12435" yWindow="135" windowWidth="7830" windowHeight="10425" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -117,11 +117,6 @@
   </si>
   <si>
     <t>IP地址恢复默认</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>硬件跳线：
-PB2输入低电平，然后开机</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -178,6 +173,11 @@
 □表示空格，末尾需要加'.'作为字符串结束符
 配置完成后重新上电
 默认配置：同例程</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>硬件跳线：
+PB8输入低电平，然后开机</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -600,9 +600,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J6" sqref="J6"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="M10" sqref="M10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -684,10 +684,10 @@
         <v>1</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>5</v>
@@ -699,10 +699,10 @@
         <v>8</v>
       </c>
       <c r="G3" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="H3" s="4" t="s">
         <v>22</v>
-      </c>
-      <c r="H3" s="4" t="s">
-        <v>23</v>
       </c>
       <c r="I3" s="11" t="s">
         <v>19</v>
@@ -711,13 +711,13 @@
         <v>13</v>
       </c>
       <c r="K3" s="11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="L3" s="5" t="s">
         <v>17</v>
       </c>
       <c r="M3" s="7" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="N3" s="8" t="s">
         <v>12</v>
@@ -836,7 +836,7 @@
     </row>
     <row r="27" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B27" s="11"/>
       <c r="C27" s="11"/>

--- a/Yoyung开关控制系统 应用协议.xlsx
+++ b/Yoyung开关控制系统 应用协议.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\无人机解决方案 物联网系统\Yoyung 开关控制系统\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B70CAF3-B5BA-4FC1-8DCA-757CC0C358B6}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D159A1F2-95DA-4D62-B056-851806FA73F7}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12630" yWindow="75" windowWidth="7830" windowHeight="10425" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -117,12 +117,6 @@
   </si>
   <si>
     <t>IP地址恢复默认</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">控制的继电器编号 +
- 开/关控制  （2字节）
-0x01~0x14   +   0x01（开）/0x02（关）      </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -178,6 +172,12 @@
   <si>
     <t>硬件跳线：
 PB8输入低电平，然后开机</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>控制的继电器编号 +
+ 开/关控制  （2字节）
+0x01~0x14   +   0x01（开）/0x02（关）  + \0</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -600,9 +600,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M10" sqref="M10"/>
+      <selection pane="bottomLeft" activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -684,10 +684,10 @@
         <v>1</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>5</v>
@@ -699,10 +699,10 @@
         <v>8</v>
       </c>
       <c r="G3" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="H3" s="4" t="s">
         <v>21</v>
-      </c>
-      <c r="H3" s="4" t="s">
-        <v>22</v>
       </c>
       <c r="I3" s="11" t="s">
         <v>19</v>
@@ -711,13 +711,13 @@
         <v>13</v>
       </c>
       <c r="K3" s="11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="L3" s="5" t="s">
         <v>17</v>
       </c>
       <c r="M3" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="N3" s="8" t="s">
         <v>12</v>
@@ -836,7 +836,7 @@
     </row>
     <row r="27" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B27" s="11"/>
       <c r="C27" s="11"/>

--- a/Yoyung开关控制系统 应用协议.xlsx
+++ b/Yoyung开关控制系统 应用协议.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21727"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21807"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\无人机解决方案 物联网系统\Yoyung 开关控制系统\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\无人机解决方案 物联网系统\Yoyung 开关控制系统\Github_Repository_\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D159A1F2-95DA-4D62-B056-851806FA73F7}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{849F09E1-217E-4D03-8103-28C7C62B40F8}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12630" yWindow="75" windowWidth="7830" windowHeight="10425" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11070" yWindow="225" windowWidth="9225" windowHeight="10425" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -128,10 +128,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>最大20个</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve">W5500 TCP/IP透传模块（SPI）+
 (SPI) STM32F103C8T6 (GPIO) + 
 （GPIO）低电平触发 继电器模块   </t>
@@ -142,6 +138,17 @@
                      继电器模块电压最好 和 芯片IO电压一致（3.3V ），否则无法正常开关继电器 —— 亲测
                      PA15，PB3，PB4 作为普通IO口时需要额外加多两行代码—— 见手机收藏夹
 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>硬件跳线：
+PB8输入低电平，然后开机</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>控制的继电器编号 +
+ 开/关控制  （2字节）
+0x01~0x14   +   0x01（开）/0x02（关）  + \0</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -161,7 +168,7 @@
 f)配置端口0目的IP地址
 Set□S0_DIP:192.168.1.100.
 g)配置端口0目的端口号
-Set□S0_DPort:6000.
+Set□S0_DPort_:6000.
 h)查询当前配置的信息
 Set□Watch:
 □表示空格，末尾需要加'.'作为字符串结束符
@@ -170,14 +177,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>硬件跳线：
-PB8输入低电平，然后开机</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>控制的继电器编号 +
- 开/关控制  （2字节）
-0x01~0x14   +   0x01（开）/0x02（关）  + \0</t>
+    <t>最大18个（总共20个，因为编号7和编号8的不能用，硬件默认用作了USB，所以能用的就18个。不改程序了）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -230,7 +230,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -257,6 +257,9 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -600,9 +603,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F7" sqref="F7"/>
+      <selection pane="bottomLeft" activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -621,22 +624,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10"/>
-      <c r="G1" s="10"/>
-      <c r="H1" s="10"/>
-      <c r="I1" s="10"/>
-      <c r="J1" s="10"/>
-      <c r="K1" s="10"/>
-      <c r="L1" s="10"/>
-      <c r="M1" s="10"/>
-      <c r="N1" s="10"/>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
+      <c r="H1" s="11"/>
+      <c r="I1" s="11"/>
+      <c r="J1" s="11"/>
+      <c r="K1" s="11"/>
+      <c r="L1" s="11"/>
+      <c r="M1" s="11"/>
+      <c r="N1" s="11"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B2" s="2" t="s">
@@ -684,10 +687,10 @@
         <v>1</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="C3" s="3" t="s">
         <v>22</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>27</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>5</v>
@@ -699,121 +702,121 @@
         <v>8</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="H3" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="I3" s="11" t="s">
+      <c r="I3" s="12" t="s">
         <v>19</v>
       </c>
       <c r="J3" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="K3" s="11" t="s">
-        <v>25</v>
+      <c r="K3" s="12" t="s">
+        <v>26</v>
       </c>
       <c r="L3" s="5" t="s">
         <v>17</v>
       </c>
       <c r="M3" s="7" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="N3" s="8" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="I4" s="11"/>
-      <c r="K4" s="11"/>
+      <c r="I4" s="12"/>
+      <c r="K4" s="12"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="H5" s="5"/>
-      <c r="I5" s="11"/>
-      <c r="K5" s="11"/>
+      <c r="I5" s="12"/>
+      <c r="K5" s="12"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="H6" s="6"/>
-      <c r="I6" s="11"/>
-      <c r="K6" s="11"/>
+      <c r="I6" s="12"/>
+      <c r="K6" s="12"/>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A7" s="5"/>
       <c r="B7" s="6"/>
       <c r="C7" s="6"/>
       <c r="H7" s="6"/>
-      <c r="I7" s="11"/>
-      <c r="K7" s="11"/>
+      <c r="I7" s="12"/>
+      <c r="K7" s="12"/>
     </row>
     <row r="8" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="6"/>
       <c r="B8" s="6"/>
       <c r="C8" s="6"/>
       <c r="H8" s="6"/>
-      <c r="I8" s="11"/>
-      <c r="K8" s="11"/>
+      <c r="I8" s="12"/>
+      <c r="K8" s="12"/>
     </row>
     <row r="9" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="6"/>
       <c r="B9" s="6"/>
       <c r="C9" s="6"/>
       <c r="H9" s="5"/>
-      <c r="K9" s="11"/>
+      <c r="K9" s="12"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A10" s="6"/>
       <c r="B10" s="6"/>
       <c r="C10" s="6"/>
       <c r="H10" s="5"/>
-      <c r="K10" s="11"/>
+      <c r="K10" s="12"/>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A11" s="6"/>
       <c r="B11" s="6"/>
       <c r="C11" s="6"/>
-      <c r="K11" s="11"/>
+      <c r="K11" s="12"/>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A12" s="6"/>
       <c r="B12" s="6"/>
       <c r="C12" s="6"/>
-      <c r="K12" s="11"/>
+      <c r="K12" s="12"/>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A13" s="6"/>
       <c r="B13" s="6"/>
       <c r="C13" s="6"/>
-      <c r="K13" s="11"/>
+      <c r="K13" s="12"/>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A14" s="6"/>
       <c r="B14" s="6"/>
       <c r="C14" s="6"/>
-      <c r="K14" s="11"/>
+      <c r="K14" s="12"/>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A15" s="6"/>
       <c r="B15" s="6"/>
       <c r="C15" s="6"/>
-      <c r="K15" s="11"/>
+      <c r="K15" s="12"/>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="K16" s="11"/>
+      <c r="K16" s="12"/>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="K17" s="11"/>
+      <c r="K17" s="12"/>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="K18" s="11"/>
+      <c r="K18" s="12"/>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="K19" s="11"/>
+      <c r="K19" s="12"/>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="K20" s="11"/>
+      <c r="K20" s="12"/>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="K21" s="11"/>
+      <c r="K21" s="12"/>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.2">
       <c r="K22" s="5"/>
@@ -835,23 +838,23 @@
       <c r="K26" s="5"/>
     </row>
     <row r="27" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="B27" s="11"/>
-      <c r="C27" s="11"/>
-      <c r="D27" s="11"/>
-      <c r="E27" s="11"/>
-      <c r="F27" s="11"/>
+      <c r="A27" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="B27" s="12"/>
+      <c r="C27" s="12"/>
+      <c r="D27" s="12"/>
+      <c r="E27" s="12"/>
+      <c r="F27" s="12"/>
       <c r="K27" s="5"/>
     </row>
     <row r="28" spans="1:11" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="11"/>
-      <c r="B28" s="11"/>
-      <c r="C28" s="11"/>
-      <c r="D28" s="11"/>
-      <c r="E28" s="11"/>
-      <c r="F28" s="11"/>
+      <c r="A28" s="12"/>
+      <c r="B28" s="12"/>
+      <c r="C28" s="12"/>
+      <c r="D28" s="12"/>
+      <c r="E28" s="12"/>
+      <c r="F28" s="12"/>
       <c r="K28" s="5"/>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.2">

--- a/Yoyung开关控制系统 应用协议.xlsx
+++ b/Yoyung开关控制系统 应用协议.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\无人机解决方案 物联网系统\Yoyung 开关控制系统\Github_Repository_\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{849F09E1-217E-4D03-8103-28C7C62B40F8}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A932C04-2838-4787-8875-537E42032010}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11070" yWindow="225" windowWidth="9225" windowHeight="10425" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -89,15 +89,6 @@
   </si>
   <si>
     <t>配置协议</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>回应</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>回应: 成功 0xA0；
-失败0xA1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -178,6 +169,19 @@
   </si>
   <si>
     <t>最大18个（总共20个，因为编号7和编号8的不能用，硬件默认用作了USB，所以能用的就18个。不改程序了）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>心跳包</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>服务器-&gt;客户端：
+"P"      
+[接收] -- 30秒内客户端没有接到心跳包，软件复位重启W5500模块（W5500模块SPI受干扰容易死机，故加此机制）
+客户端-&gt;服务器：
+"\r\nWelcome To YiXinElec!\r\n"    
+[发送] -- 500ms向服务器发送一次心跳包</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -603,9 +607,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D5" sqref="D5"/>
+      <selection pane="bottomLeft" activeCell="M10" sqref="M10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -619,7 +623,8 @@
     <col min="9" max="9" width="24.875" customWidth="1"/>
     <col min="10" max="10" width="22.875" customWidth="1"/>
     <col min="11" max="11" width="31" customWidth="1"/>
-    <col min="12" max="13" width="15.75" customWidth="1"/>
+    <col min="12" max="12" width="20.75" customWidth="1"/>
+    <col min="13" max="13" width="15.75" customWidth="1"/>
     <col min="14" max="14" width="18.375" customWidth="1"/>
   </cols>
   <sheetData>
@@ -664,7 +669,7 @@
         <v>10</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="J2" s="2" t="s">
         <v>14</v>
@@ -673,10 +678,10 @@
         <v>15</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="N2" s="2" t="s">
         <v>11</v>
@@ -687,10 +692,10 @@
         <v>1</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>5</v>
@@ -702,25 +707,25 @@
         <v>8</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="I3" s="12" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="J3" s="4" t="s">
         <v>13</v>
       </c>
       <c r="K3" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="L3" s="5" t="s">
-        <v>17</v>
+        <v>24</v>
+      </c>
+      <c r="L3" s="12" t="s">
+        <v>27</v>
       </c>
       <c r="M3" s="7" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="N3" s="8" t="s">
         <v>12</v>
@@ -729,16 +734,19 @@
     <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="I4" s="12"/>
       <c r="K4" s="12"/>
+      <c r="L4" s="12"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="H5" s="5"/>
       <c r="I5" s="12"/>
       <c r="K5" s="12"/>
+      <c r="L5" s="12"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="H6" s="6"/>
       <c r="I6" s="12"/>
       <c r="K6" s="12"/>
+      <c r="L6" s="12"/>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A7" s="5"/>
@@ -747,6 +755,7 @@
       <c r="H7" s="6"/>
       <c r="I7" s="12"/>
       <c r="K7" s="12"/>
+      <c r="L7" s="12"/>
     </row>
     <row r="8" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="6"/>
@@ -755,6 +764,7 @@
       <c r="H8" s="6"/>
       <c r="I8" s="12"/>
       <c r="K8" s="12"/>
+      <c r="L8" s="12"/>
     </row>
     <row r="9" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="6"/>
@@ -762,6 +772,7 @@
       <c r="C9" s="6"/>
       <c r="H9" s="5"/>
       <c r="K9" s="12"/>
+      <c r="L9" s="12"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A10" s="6"/>
@@ -769,6 +780,7 @@
       <c r="C10" s="6"/>
       <c r="H10" s="5"/>
       <c r="K10" s="12"/>
+      <c r="L10" s="12"/>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A11" s="6"/>
@@ -839,7 +851,7 @@
     </row>
     <row r="27" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="12" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B27" s="12"/>
       <c r="C27" s="12"/>
@@ -865,11 +877,12 @@
       <c r="K29" s="5"/>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="5">
     <mergeCell ref="A1:N1"/>
     <mergeCell ref="I3:I8"/>
     <mergeCell ref="A27:F28"/>
     <mergeCell ref="K3:K21"/>
+    <mergeCell ref="L3:L10"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
